--- a/SellyExcel/6.9 테스트 통과/성능통계 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/성능통계 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DF92B-2652-854D-AB95-C1D48603C774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F8208-20C1-814D-BEE5-3F17930E0860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29880" yWindow="12400" windowWidth="27500" windowHeight="16440" xr2:uid="{99D986A9-0B28-AC44-81CC-B66A3C2BA972}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   <si>
     <t>확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
   </si>
 </sst>
 </file>
@@ -612,9 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56F0EB1-D6E1-9840-B8BB-6AEE9A63F772}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -623,119 +621,119 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -746,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -757,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -768,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -779,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -790,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -801,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -812,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -823,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -834,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -845,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -856,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -867,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -878,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -889,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -900,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
